--- a/data/fakecsv/dept_AAPL.xlsx
+++ b/data/fakecsv/dept_AAPL.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1071" uniqueCount="103">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1236" uniqueCount="111">
   <si>
     <t>Department</t>
   </si>
@@ -25,7 +25,7 @@
     <t>User ID</t>
   </si>
   <si>
-    <t>Fullname</t>
+    <t>Name</t>
   </si>
   <si>
     <t>System1</t>
@@ -40,262 +40,286 @@
     <t>AAPL</t>
   </si>
   <si>
-    <t>M2NDXAKEXUMDVAPLA</t>
-  </si>
-  <si>
-    <t>DLN2LAVW9V6FF73WJ</t>
-  </si>
-  <si>
-    <t>EJ44XDKA7CCCYYKJ5</t>
-  </si>
-  <si>
-    <t>HAFRHFU1XRBE31U16</t>
-  </si>
-  <si>
-    <t>SM0TM5923A7PME318</t>
-  </si>
-  <si>
-    <t>1VEEZW5R494HMSSBD</t>
-  </si>
-  <si>
-    <t>L0FZJW8YXV9G2ND9P</t>
-  </si>
-  <si>
-    <t>V811CFE36GV7RUEFH</t>
-  </si>
-  <si>
-    <t>57ULFH4461RDEE4Z2</t>
-  </si>
-  <si>
-    <t>TR7VK3WJ4SAPGDANZ</t>
-  </si>
-  <si>
-    <t>ZHJGY3SY7RVSMTU88</t>
-  </si>
-  <si>
-    <t>C8191VG82WU3E4GFT</t>
-  </si>
-  <si>
-    <t>CVT2X78879PVAZESE</t>
-  </si>
-  <si>
-    <t>HSNENFER8RS0ADZNX</t>
-  </si>
-  <si>
-    <t>1VA19EMX1A5Z8820C</t>
-  </si>
-  <si>
-    <t>0S8M9Z8Z60BVRFYCM</t>
-  </si>
-  <si>
-    <t>29NLGJ5N64HRFYYN0</t>
-  </si>
-  <si>
-    <t>VHS1RSPE006N36FN9</t>
-  </si>
-  <si>
-    <t>S3GZLKY976UK91KWG</t>
-  </si>
-  <si>
-    <t>JN05N4827MXXSRN08</t>
-  </si>
-  <si>
-    <t>7W9E115Z5UXNF5HD3</t>
-  </si>
-  <si>
-    <t>AX36FHPC5DDR425SA</t>
-  </si>
-  <si>
-    <t>202UZNJ738GJ7926J</t>
-  </si>
-  <si>
-    <t>4YV4P8EC9W8TC9CYG</t>
-  </si>
-  <si>
-    <t>HZ8FYUJ56RL1JNW9C</t>
-  </si>
-  <si>
-    <t>1B39X5A01PAVFH8KX</t>
-  </si>
-  <si>
-    <t>J1R2H51C688GJ66N3</t>
-  </si>
-  <si>
-    <t>ZZ2G3RUEXMPT019CD</t>
-  </si>
-  <si>
-    <t>7G20B2RH9P1S1J91M</t>
-  </si>
-  <si>
-    <t>REX1VHJA75G13S8E5</t>
-  </si>
-  <si>
-    <t>K887WCKX8XEHFAWJG</t>
-  </si>
-  <si>
-    <t>S91SBN30XNSZJJ7MD</t>
-  </si>
-  <si>
-    <t>DZGF4KK99CA2J3T43</t>
-  </si>
-  <si>
-    <t>KK27ATBH2764NAJZD</t>
-  </si>
-  <si>
-    <t>AE17UTF37EZAYXTMV</t>
-  </si>
-  <si>
-    <t>WVD7Z50U19X1W3Y5N</t>
-  </si>
-  <si>
-    <t>H51MU97G75SXHNVF9</t>
-  </si>
-  <si>
-    <t>ATBGKF375PYTTVWVB</t>
-  </si>
-  <si>
-    <t>LYMEW7ES5XK1WE58T</t>
-  </si>
-  <si>
-    <t>NP6XYU4D2EPEB8UWF</t>
-  </si>
-  <si>
-    <t>K9JJY8PA05PTFNXM7</t>
-  </si>
-  <si>
-    <t>AUTDF76T5G7CU1DAU</t>
-  </si>
-  <si>
-    <t>KUVNPTCB6671GSPNL</t>
-  </si>
-  <si>
-    <t>Brian Warren</t>
-  </si>
-  <si>
-    <t>Shari Melton</t>
-  </si>
-  <si>
-    <t>Valerie Kelley</t>
-  </si>
-  <si>
-    <t>Bryan Rosario</t>
-  </si>
-  <si>
-    <t>Timothy Sanders</t>
-  </si>
-  <si>
-    <t>Renee Mann</t>
-  </si>
-  <si>
-    <t>Annette Miller</t>
-  </si>
-  <si>
-    <t>Troy Miller</t>
-  </si>
-  <si>
-    <t>Kevin Smith</t>
-  </si>
-  <si>
-    <t>Robert Rollins</t>
-  </si>
-  <si>
-    <t>Anna Nichols</t>
-  </si>
-  <si>
-    <t>Loretta Newton</t>
-  </si>
-  <si>
-    <t>Monica Cox</t>
-  </si>
-  <si>
-    <t>Brian Shields</t>
-  </si>
-  <si>
-    <t>Terry Clark</t>
-  </si>
-  <si>
-    <t>Jason Davis</t>
-  </si>
-  <si>
-    <t>Brittany Oconnell</t>
-  </si>
-  <si>
-    <t>Jordan Price</t>
-  </si>
-  <si>
-    <t>Anna Richard</t>
-  </si>
-  <si>
-    <t>Mandy Mcclain</t>
-  </si>
-  <si>
-    <t>Katie Norman</t>
-  </si>
-  <si>
-    <t>Maria Jenkins MD</t>
-  </si>
-  <si>
-    <t>Matthew Bond PhD</t>
-  </si>
-  <si>
-    <t>Kenneth Williams</t>
-  </si>
-  <si>
-    <t>Dr. Shelby Burke</t>
-  </si>
-  <si>
-    <t>Donna Rios</t>
-  </si>
-  <si>
-    <t>Colin Johnson</t>
-  </si>
-  <si>
-    <t>Diane Taylor</t>
-  </si>
-  <si>
-    <t>Austin Castillo</t>
-  </si>
-  <si>
-    <t>Ana Owen</t>
-  </si>
-  <si>
-    <t>Alexander Davis</t>
-  </si>
-  <si>
-    <t>Linda Powell</t>
-  </si>
-  <si>
-    <t>Natalie Weeks</t>
-  </si>
-  <si>
-    <t>Adrian Wood</t>
-  </si>
-  <si>
-    <t>Michelle Bullock</t>
-  </si>
-  <si>
-    <t>Gregory Macdonald</t>
-  </si>
-  <si>
-    <t>Michael Trevino</t>
-  </si>
-  <si>
-    <t>Jasmin Martinez</t>
-  </si>
-  <si>
-    <t>Patrick Graves</t>
-  </si>
-  <si>
-    <t>Christine Smith</t>
-  </si>
-  <si>
-    <t>Tiffany Mann</t>
-  </si>
-  <si>
-    <t>Debra Stuart</t>
-  </si>
-  <si>
-    <t>Mark West</t>
+    <t>1G2Y80K80ZN8M51XU</t>
+  </si>
+  <si>
+    <t>39S6S6TD0AEJVJYDY</t>
+  </si>
+  <si>
+    <t>S90DRKWA7G5W7C5GD</t>
+  </si>
+  <si>
+    <t>H7TA6BDR8ZS0NK6ND</t>
+  </si>
+  <si>
+    <t>KDUKPM502GLHXG7RC</t>
+  </si>
+  <si>
+    <t>R31P76VR2F5N3X1E8</t>
+  </si>
+  <si>
+    <t>USWG8PG424N733N43</t>
+  </si>
+  <si>
+    <t>RH8D7JAX1MSR8P4YX</t>
+  </si>
+  <si>
+    <t>BRUX4DUG52C7JE0LB</t>
+  </si>
+  <si>
+    <t>WRZZDUR66UZWVB0DH</t>
+  </si>
+  <si>
+    <t>DR618L2Z05NGC77Y9</t>
+  </si>
+  <si>
+    <t>0WTC1RX94ZE6YL6XZ</t>
+  </si>
+  <si>
+    <t>AURG7K1RXGMNSYLSV</t>
+  </si>
+  <si>
+    <t>54EXXYLP2G5YSJMBH</t>
+  </si>
+  <si>
+    <t>0DNJW78M083L0E0P7</t>
+  </si>
+  <si>
+    <t>FVB788ZE0XC1Z8TFF</t>
+  </si>
+  <si>
+    <t>NRLWZVRS67JPCY5TV</t>
+  </si>
+  <si>
+    <t>3W07SA6T6G6XPFTPH</t>
+  </si>
+  <si>
+    <t>L4PN8FGH8NFSS6KA7</t>
+  </si>
+  <si>
+    <t>JDWDJU8G21AZ84FET</t>
+  </si>
+  <si>
+    <t>SDYCYHEU0CX30SCPG</t>
+  </si>
+  <si>
+    <t>D803ETB38A29JZ8B3</t>
+  </si>
+  <si>
+    <t>9VY7007316VJ2SFGL</t>
+  </si>
+  <si>
+    <t>HK8EMVCY3ZN24TV7K</t>
+  </si>
+  <si>
+    <t>SRFMG2ZV5T70AN244</t>
+  </si>
+  <si>
+    <t>8ZS4H1P42JKT4W8XU</t>
+  </si>
+  <si>
+    <t>NP81YVTZ4ZCUM4H39</t>
+  </si>
+  <si>
+    <t>XFLV8F904B2171VE1</t>
+  </si>
+  <si>
+    <t>3R6P67L465XCTEW52</t>
+  </si>
+  <si>
+    <t>ETMFUJ0D8683M0RBX</t>
+  </si>
+  <si>
+    <t>SAUUVJ7Y3Y390BHS4</t>
+  </si>
+  <si>
+    <t>192WYB5R0XFE58DFY</t>
+  </si>
+  <si>
+    <t>A7NSMJMW1RB9KNE91</t>
+  </si>
+  <si>
+    <t>3J5M16MX35W6C3TEW</t>
+  </si>
+  <si>
+    <t>69EY8RW874M69WFXD</t>
+  </si>
+  <si>
+    <t>KRC2RXHW2067GRMFL</t>
+  </si>
+  <si>
+    <t>99TTCX5T43R1RRWR1</t>
+  </si>
+  <si>
+    <t>ZTTJGGP77JBAYNWMJ</t>
+  </si>
+  <si>
+    <t>226KU1W004EG2TATP</t>
+  </si>
+  <si>
+    <t>3ZXFKEGN1BS2FAJH6</t>
+  </si>
+  <si>
+    <t>XKKGLXBP7A257Y84K</t>
+  </si>
+  <si>
+    <t>2U5PJRW18MG4XGATV</t>
+  </si>
+  <si>
+    <t>A069XAW76B9NUFSAE</t>
+  </si>
+  <si>
+    <t>G59DLRJL1PZG4CJA4</t>
+  </si>
+  <si>
+    <t>N4SBBDZJ0R36AWFBF</t>
+  </si>
+  <si>
+    <t>99HCZLPX3LCF2L4ZM</t>
+  </si>
+  <si>
+    <t>BYNE580U4GJPH0M5W</t>
+  </si>
+  <si>
+    <t>Heather Manning</t>
+  </si>
+  <si>
+    <t>Robert Watkins</t>
+  </si>
+  <si>
+    <t>Mary Dorsey</t>
+  </si>
+  <si>
+    <t>Amber Tapia</t>
+  </si>
+  <si>
+    <t>Jessica Knapp</t>
+  </si>
+  <si>
+    <t>William Robinson</t>
+  </si>
+  <si>
+    <t>Anne Diaz</t>
+  </si>
+  <si>
+    <t>Alexis Martin</t>
+  </si>
+  <si>
+    <t>Joshua Mcgrath</t>
+  </si>
+  <si>
+    <t>Michael Perez</t>
+  </si>
+  <si>
+    <t>Edward George</t>
+  </si>
+  <si>
+    <t>Ashley Arroyo</t>
+  </si>
+  <si>
+    <t>Stephanie Carr</t>
+  </si>
+  <si>
+    <t>Sonya Stewart</t>
+  </si>
+  <si>
+    <t>Lisa Brown</t>
+  </si>
+  <si>
+    <t>Timothy Reed</t>
+  </si>
+  <si>
+    <t>Susan Doyle</t>
+  </si>
+  <si>
+    <t>Susan Benson</t>
+  </si>
+  <si>
+    <t>Jennifer Little</t>
+  </si>
+  <si>
+    <t>Andrea Martinez</t>
+  </si>
+  <si>
+    <t>Albert Rodriguez</t>
+  </si>
+  <si>
+    <t>Joel Lara</t>
+  </si>
+  <si>
+    <t>William Barrett</t>
+  </si>
+  <si>
+    <t>Crystal Turner</t>
+  </si>
+  <si>
+    <t>Joe Hill</t>
+  </si>
+  <si>
+    <t>Frank Wood</t>
+  </si>
+  <si>
+    <t>Julia Vargas</t>
+  </si>
+  <si>
+    <t>Mark White</t>
+  </si>
+  <si>
+    <t>Carol Torres</t>
+  </si>
+  <si>
+    <t>Janet Zamora</t>
+  </si>
+  <si>
+    <t>Robert Fisher</t>
+  </si>
+  <si>
+    <t>Rachel Jordan</t>
+  </si>
+  <si>
+    <t>John Fleming</t>
+  </si>
+  <si>
+    <t>Anthony Edwards</t>
+  </si>
+  <si>
+    <t>Stephanie Holland</t>
+  </si>
+  <si>
+    <t>Jamie Kirby</t>
+  </si>
+  <si>
+    <t>Michelle Walker</t>
+  </si>
+  <si>
+    <t>Stephanie Herrera</t>
+  </si>
+  <si>
+    <t>Debra Willis</t>
+  </si>
+  <si>
+    <t>Jacqueline West</t>
+  </si>
+  <si>
+    <t>Heather Hill</t>
+  </si>
+  <si>
+    <t>David Carpenter</t>
+  </si>
+  <si>
+    <t>Karen Ortega</t>
+  </si>
+  <si>
+    <t>Timothy Chen</t>
+  </si>
+  <si>
+    <t>Angela Gamble</t>
+  </si>
+  <si>
+    <t>Donna Rodriguez</t>
+  </si>
+  <si>
+    <t>Peter Martinez</t>
   </si>
   <si>
     <t>KLSE</t>
@@ -680,7 +704,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F214"/>
+  <dimension ref="A1:F247"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -717,10 +741,10 @@
         <v>8</v>
       </c>
       <c r="D2" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="E2" t="s">
-        <v>94</v>
+        <v>102</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -734,10 +758,10 @@
         <v>9</v>
       </c>
       <c r="D3" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="E3" t="s">
-        <v>94</v>
+        <v>102</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -751,10 +775,10 @@
         <v>9</v>
       </c>
       <c r="D4" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="E4" t="s">
-        <v>95</v>
+        <v>103</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -768,10 +792,10 @@
         <v>9</v>
       </c>
       <c r="D5" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="E5" t="s">
-        <v>96</v>
+        <v>104</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -785,10 +809,10 @@
         <v>9</v>
       </c>
       <c r="D6" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="E6" t="s">
-        <v>97</v>
+        <v>105</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -802,10 +826,10 @@
         <v>9</v>
       </c>
       <c r="D7" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="E7" t="s">
-        <v>98</v>
+        <v>106</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -816,13 +840,13 @@
         <v>7</v>
       </c>
       <c r="C8" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D8" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="E8" t="s">
-        <v>94</v>
+        <v>107</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -836,10 +860,10 @@
         <v>10</v>
       </c>
       <c r="D9" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="E9" t="s">
-        <v>95</v>
+        <v>102</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -853,10 +877,10 @@
         <v>10</v>
       </c>
       <c r="D10" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="E10" t="s">
-        <v>96</v>
+        <v>103</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -867,13 +891,13 @@
         <v>7</v>
       </c>
       <c r="C11" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D11" t="s">
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="E11" t="s">
-        <v>97</v>
+        <v>102</v>
       </c>
     </row>
     <row r="12" spans="1:6">
@@ -887,10 +911,10 @@
         <v>11</v>
       </c>
       <c r="D12" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="E12" t="s">
-        <v>94</v>
+        <v>103</v>
       </c>
     </row>
     <row r="13" spans="1:6">
@@ -904,10 +928,10 @@
         <v>11</v>
       </c>
       <c r="D13" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="E13" t="s">
-        <v>95</v>
+        <v>104</v>
       </c>
     </row>
     <row r="14" spans="1:6">
@@ -921,10 +945,10 @@
         <v>11</v>
       </c>
       <c r="D14" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="E14" t="s">
-        <v>96</v>
+        <v>105</v>
       </c>
     </row>
     <row r="15" spans="1:6">
@@ -938,10 +962,10 @@
         <v>11</v>
       </c>
       <c r="D15" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="E15" t="s">
-        <v>97</v>
+        <v>106</v>
       </c>
     </row>
     <row r="16" spans="1:6">
@@ -955,10 +979,10 @@
         <v>11</v>
       </c>
       <c r="D16" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="E16" t="s">
-        <v>98</v>
+        <v>107</v>
       </c>
     </row>
     <row r="17" spans="1:5">
@@ -969,13 +993,13 @@
         <v>7</v>
       </c>
       <c r="C17" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D17" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="E17" t="s">
-        <v>94</v>
+        <v>108</v>
       </c>
     </row>
     <row r="18" spans="1:5">
@@ -986,13 +1010,13 @@
         <v>7</v>
       </c>
       <c r="C18" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D18" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="E18" t="s">
-        <v>95</v>
+        <v>109</v>
       </c>
     </row>
     <row r="19" spans="1:5">
@@ -1006,10 +1030,10 @@
         <v>12</v>
       </c>
       <c r="D19" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="E19" t="s">
-        <v>96</v>
+        <v>102</v>
       </c>
     </row>
     <row r="20" spans="1:5">
@@ -1023,10 +1047,10 @@
         <v>12</v>
       </c>
       <c r="D20" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="E20" t="s">
-        <v>97</v>
+        <v>103</v>
       </c>
     </row>
     <row r="21" spans="1:5">
@@ -1040,10 +1064,10 @@
         <v>12</v>
       </c>
       <c r="D21" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="E21" t="s">
-        <v>98</v>
+        <v>104</v>
       </c>
     </row>
     <row r="22" spans="1:5">
@@ -1057,10 +1081,10 @@
         <v>12</v>
       </c>
       <c r="D22" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="E22" t="s">
-        <v>99</v>
+        <v>105</v>
       </c>
     </row>
     <row r="23" spans="1:5">
@@ -1074,10 +1098,10 @@
         <v>12</v>
       </c>
       <c r="D23" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="E23" t="s">
-        <v>100</v>
+        <v>106</v>
       </c>
     </row>
     <row r="24" spans="1:5">
@@ -1088,13 +1112,13 @@
         <v>7</v>
       </c>
       <c r="C24" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D24" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="E24" t="s">
-        <v>94</v>
+        <v>107</v>
       </c>
     </row>
     <row r="25" spans="1:5">
@@ -1108,10 +1132,10 @@
         <v>13</v>
       </c>
       <c r="D25" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="E25" t="s">
-        <v>95</v>
+        <v>102</v>
       </c>
     </row>
     <row r="26" spans="1:5">
@@ -1125,10 +1149,10 @@
         <v>13</v>
       </c>
       <c r="D26" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="E26" t="s">
-        <v>96</v>
+        <v>103</v>
       </c>
     </row>
     <row r="27" spans="1:5">
@@ -1142,10 +1166,10 @@
         <v>13</v>
       </c>
       <c r="D27" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="E27" t="s">
-        <v>97</v>
+        <v>104</v>
       </c>
     </row>
     <row r="28" spans="1:5">
@@ -1159,10 +1183,10 @@
         <v>13</v>
       </c>
       <c r="D28" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="E28" t="s">
-        <v>98</v>
+        <v>105</v>
       </c>
     </row>
     <row r="29" spans="1:5">
@@ -1176,10 +1200,10 @@
         <v>13</v>
       </c>
       <c r="D29" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="E29" t="s">
-        <v>99</v>
+        <v>106</v>
       </c>
     </row>
     <row r="30" spans="1:5">
@@ -1190,13 +1214,13 @@
         <v>7</v>
       </c>
       <c r="C30" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D30" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="E30" t="s">
-        <v>94</v>
+        <v>107</v>
       </c>
     </row>
     <row r="31" spans="1:5">
@@ -1207,13 +1231,13 @@
         <v>7</v>
       </c>
       <c r="C31" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D31" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="E31" t="s">
-        <v>95</v>
+        <v>108</v>
       </c>
     </row>
     <row r="32" spans="1:5">
@@ -1224,13 +1248,13 @@
         <v>7</v>
       </c>
       <c r="C32" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D32" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="E32" t="s">
-        <v>96</v>
+        <v>109</v>
       </c>
     </row>
     <row r="33" spans="1:5">
@@ -1241,13 +1265,13 @@
         <v>7</v>
       </c>
       <c r="C33" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D33" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="E33" t="s">
-        <v>97</v>
+        <v>110</v>
       </c>
     </row>
     <row r="34" spans="1:5">
@@ -1258,13 +1282,13 @@
         <v>7</v>
       </c>
       <c r="C34" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D34" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="E34" t="s">
-        <v>94</v>
+        <v>102</v>
       </c>
     </row>
     <row r="35" spans="1:5">
@@ -1278,10 +1302,10 @@
         <v>15</v>
       </c>
       <c r="D35" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="E35" t="s">
-        <v>95</v>
+        <v>102</v>
       </c>
     </row>
     <row r="36" spans="1:5">
@@ -1295,10 +1319,10 @@
         <v>15</v>
       </c>
       <c r="D36" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="E36" t="s">
-        <v>96</v>
+        <v>103</v>
       </c>
     </row>
     <row r="37" spans="1:5">
@@ -1312,10 +1336,10 @@
         <v>15</v>
       </c>
       <c r="D37" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="E37" t="s">
-        <v>97</v>
+        <v>104</v>
       </c>
     </row>
     <row r="38" spans="1:5">
@@ -1329,10 +1353,10 @@
         <v>15</v>
       </c>
       <c r="D38" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="E38" t="s">
-        <v>98</v>
+        <v>105</v>
       </c>
     </row>
     <row r="39" spans="1:5">
@@ -1343,13 +1367,13 @@
         <v>7</v>
       </c>
       <c r="C39" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D39" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="E39" t="s">
-        <v>94</v>
+        <v>106</v>
       </c>
     </row>
     <row r="40" spans="1:5">
@@ -1360,13 +1384,13 @@
         <v>7</v>
       </c>
       <c r="C40" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D40" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="E40" t="s">
-        <v>94</v>
+        <v>102</v>
       </c>
     </row>
     <row r="41" spans="1:5">
@@ -1380,10 +1404,10 @@
         <v>17</v>
       </c>
       <c r="D41" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="E41" t="s">
-        <v>95</v>
+        <v>102</v>
       </c>
     </row>
     <row r="42" spans="1:5">
@@ -1397,10 +1421,10 @@
         <v>17</v>
       </c>
       <c r="D42" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="E42" t="s">
-        <v>96</v>
+        <v>103</v>
       </c>
     </row>
     <row r="43" spans="1:5">
@@ -1414,10 +1438,10 @@
         <v>17</v>
       </c>
       <c r="D43" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="E43" t="s">
-        <v>97</v>
+        <v>104</v>
       </c>
     </row>
     <row r="44" spans="1:5">
@@ -1431,10 +1455,10 @@
         <v>17</v>
       </c>
       <c r="D44" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="E44" t="s">
-        <v>98</v>
+        <v>105</v>
       </c>
     </row>
     <row r="45" spans="1:5">
@@ -1448,10 +1472,10 @@
         <v>17</v>
       </c>
       <c r="D45" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="E45" t="s">
-        <v>99</v>
+        <v>106</v>
       </c>
     </row>
     <row r="46" spans="1:5">
@@ -1465,10 +1489,10 @@
         <v>17</v>
       </c>
       <c r="D46" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="E46" t="s">
-        <v>100</v>
+        <v>107</v>
       </c>
     </row>
     <row r="47" spans="1:5">
@@ -1482,10 +1506,10 @@
         <v>17</v>
       </c>
       <c r="D47" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="E47" t="s">
-        <v>101</v>
+        <v>108</v>
       </c>
     </row>
     <row r="48" spans="1:5">
@@ -1496,13 +1520,13 @@
         <v>7</v>
       </c>
       <c r="C48" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D48" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="E48" t="s">
-        <v>94</v>
+        <v>109</v>
       </c>
     </row>
     <row r="49" spans="1:5">
@@ -1513,13 +1537,13 @@
         <v>7</v>
       </c>
       <c r="C49" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D49" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="E49" t="s">
-        <v>95</v>
+        <v>110</v>
       </c>
     </row>
     <row r="50" spans="1:5">
@@ -1533,10 +1557,10 @@
         <v>18</v>
       </c>
       <c r="D50" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="E50" t="s">
-        <v>96</v>
+        <v>102</v>
       </c>
     </row>
     <row r="51" spans="1:5">
@@ -1550,10 +1574,10 @@
         <v>18</v>
       </c>
       <c r="D51" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="E51" t="s">
-        <v>97</v>
+        <v>103</v>
       </c>
     </row>
     <row r="52" spans="1:5">
@@ -1567,10 +1591,10 @@
         <v>18</v>
       </c>
       <c r="D52" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="E52" t="s">
-        <v>98</v>
+        <v>104</v>
       </c>
     </row>
     <row r="53" spans="1:5">
@@ -1584,10 +1608,10 @@
         <v>18</v>
       </c>
       <c r="D53" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="E53" t="s">
-        <v>99</v>
+        <v>105</v>
       </c>
     </row>
     <row r="54" spans="1:5">
@@ -1601,10 +1625,10 @@
         <v>18</v>
       </c>
       <c r="D54" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="E54" t="s">
-        <v>100</v>
+        <v>106</v>
       </c>
     </row>
     <row r="55" spans="1:5">
@@ -1618,10 +1642,10 @@
         <v>18</v>
       </c>
       <c r="D55" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="E55" t="s">
-        <v>101</v>
+        <v>107</v>
       </c>
     </row>
     <row r="56" spans="1:5">
@@ -1635,10 +1659,10 @@
         <v>18</v>
       </c>
       <c r="D56" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="E56" t="s">
-        <v>102</v>
+        <v>108</v>
       </c>
     </row>
     <row r="57" spans="1:5">
@@ -1649,13 +1673,13 @@
         <v>7</v>
       </c>
       <c r="C57" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D57" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="E57" t="s">
-        <v>94</v>
+        <v>109</v>
       </c>
     </row>
     <row r="58" spans="1:5">
@@ -1669,10 +1693,10 @@
         <v>19</v>
       </c>
       <c r="D58" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="E58" t="s">
-        <v>95</v>
+        <v>102</v>
       </c>
     </row>
     <row r="59" spans="1:5">
@@ -1686,10 +1710,10 @@
         <v>19</v>
       </c>
       <c r="D59" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="E59" t="s">
-        <v>96</v>
+        <v>103</v>
       </c>
     </row>
     <row r="60" spans="1:5">
@@ -1703,10 +1727,10 @@
         <v>19</v>
       </c>
       <c r="D60" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="E60" t="s">
-        <v>97</v>
+        <v>104</v>
       </c>
     </row>
     <row r="61" spans="1:5">
@@ -1717,13 +1741,13 @@
         <v>7</v>
       </c>
       <c r="C61" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D61" t="s">
-        <v>62</v>
+        <v>67</v>
       </c>
       <c r="E61" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
     </row>
     <row r="62" spans="1:5">
@@ -1734,13 +1758,13 @@
         <v>7</v>
       </c>
       <c r="C62" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D62" t="s">
-        <v>62</v>
+        <v>67</v>
       </c>
       <c r="E62" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
     </row>
     <row r="63" spans="1:5">
@@ -1751,13 +1775,13 @@
         <v>7</v>
       </c>
       <c r="C63" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D63" t="s">
-        <v>62</v>
+        <v>67</v>
       </c>
       <c r="E63" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
     </row>
     <row r="64" spans="1:5">
@@ -1768,13 +1792,13 @@
         <v>7</v>
       </c>
       <c r="C64" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D64" t="s">
-        <v>62</v>
+        <v>67</v>
       </c>
       <c r="E64" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
     </row>
     <row r="65" spans="1:5">
@@ -1788,10 +1812,10 @@
         <v>20</v>
       </c>
       <c r="D65" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="E65" t="s">
-        <v>94</v>
+        <v>106</v>
       </c>
     </row>
     <row r="66" spans="1:5">
@@ -1805,10 +1829,10 @@
         <v>20</v>
       </c>
       <c r="D66" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="E66" t="s">
-        <v>95</v>
+        <v>107</v>
       </c>
     </row>
     <row r="67" spans="1:5">
@@ -1822,10 +1846,10 @@
         <v>20</v>
       </c>
       <c r="D67" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="E67" t="s">
-        <v>96</v>
+        <v>108</v>
       </c>
     </row>
     <row r="68" spans="1:5">
@@ -1839,10 +1863,10 @@
         <v>20</v>
       </c>
       <c r="D68" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="E68" t="s">
-        <v>97</v>
+        <v>109</v>
       </c>
     </row>
     <row r="69" spans="1:5">
@@ -1856,10 +1880,10 @@
         <v>20</v>
       </c>
       <c r="D69" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="E69" t="s">
-        <v>98</v>
+        <v>110</v>
       </c>
     </row>
     <row r="70" spans="1:5">
@@ -1873,10 +1897,10 @@
         <v>21</v>
       </c>
       <c r="D70" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="E70" t="s">
-        <v>94</v>
+        <v>102</v>
       </c>
     </row>
     <row r="71" spans="1:5">
@@ -1890,10 +1914,10 @@
         <v>21</v>
       </c>
       <c r="D71" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="E71" t="s">
-        <v>95</v>
+        <v>103</v>
       </c>
     </row>
     <row r="72" spans="1:5">
@@ -1907,10 +1931,10 @@
         <v>21</v>
       </c>
       <c r="D72" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="E72" t="s">
-        <v>96</v>
+        <v>104</v>
       </c>
     </row>
     <row r="73" spans="1:5">
@@ -1924,10 +1948,10 @@
         <v>21</v>
       </c>
       <c r="D73" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="E73" t="s">
-        <v>97</v>
+        <v>105</v>
       </c>
     </row>
     <row r="74" spans="1:5">
@@ -1941,10 +1965,10 @@
         <v>21</v>
       </c>
       <c r="D74" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="E74" t="s">
-        <v>98</v>
+        <v>106</v>
       </c>
     </row>
     <row r="75" spans="1:5">
@@ -1958,10 +1982,10 @@
         <v>21</v>
       </c>
       <c r="D75" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="E75" t="s">
-        <v>99</v>
+        <v>107</v>
       </c>
     </row>
     <row r="76" spans="1:5">
@@ -1975,10 +1999,10 @@
         <v>21</v>
       </c>
       <c r="D76" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="E76" t="s">
-        <v>100</v>
+        <v>108</v>
       </c>
     </row>
     <row r="77" spans="1:5">
@@ -1989,13 +2013,13 @@
         <v>7</v>
       </c>
       <c r="C77" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D77" t="s">
-        <v>64</v>
+        <v>69</v>
       </c>
       <c r="E77" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
     </row>
     <row r="78" spans="1:5">
@@ -2006,13 +2030,13 @@
         <v>7</v>
       </c>
       <c r="C78" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D78" t="s">
-        <v>64</v>
+        <v>69</v>
       </c>
       <c r="E78" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
     </row>
     <row r="79" spans="1:5">
@@ -2026,10 +2050,10 @@
         <v>22</v>
       </c>
       <c r="D79" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="E79" t="s">
-        <v>94</v>
+        <v>104</v>
       </c>
     </row>
     <row r="80" spans="1:5">
@@ -2043,10 +2067,10 @@
         <v>22</v>
       </c>
       <c r="D80" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="E80" t="s">
-        <v>95</v>
+        <v>105</v>
       </c>
     </row>
     <row r="81" spans="1:5">
@@ -2060,10 +2084,10 @@
         <v>22</v>
       </c>
       <c r="D81" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="E81" t="s">
-        <v>96</v>
+        <v>106</v>
       </c>
     </row>
     <row r="82" spans="1:5">
@@ -2077,10 +2101,10 @@
         <v>22</v>
       </c>
       <c r="D82" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="E82" t="s">
-        <v>97</v>
+        <v>107</v>
       </c>
     </row>
     <row r="83" spans="1:5">
@@ -2094,10 +2118,10 @@
         <v>22</v>
       </c>
       <c r="D83" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="E83" t="s">
-        <v>98</v>
+        <v>108</v>
       </c>
     </row>
     <row r="84" spans="1:5">
@@ -2108,13 +2132,13 @@
         <v>7</v>
       </c>
       <c r="C84" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D84" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="E84" t="s">
-        <v>94</v>
+        <v>109</v>
       </c>
     </row>
     <row r="85" spans="1:5">
@@ -2125,13 +2149,13 @@
         <v>7</v>
       </c>
       <c r="C85" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D85" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="E85" t="s">
-        <v>95</v>
+        <v>110</v>
       </c>
     </row>
     <row r="86" spans="1:5">
@@ -2145,10 +2169,10 @@
         <v>23</v>
       </c>
       <c r="D86" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="E86" t="s">
-        <v>96</v>
+        <v>102</v>
       </c>
     </row>
     <row r="87" spans="1:5">
@@ -2162,10 +2186,10 @@
         <v>23</v>
       </c>
       <c r="D87" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="E87" t="s">
-        <v>97</v>
+        <v>103</v>
       </c>
     </row>
     <row r="88" spans="1:5">
@@ -2179,10 +2203,10 @@
         <v>23</v>
       </c>
       <c r="D88" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="E88" t="s">
-        <v>98</v>
+        <v>104</v>
       </c>
     </row>
     <row r="89" spans="1:5">
@@ -2193,13 +2217,13 @@
         <v>7</v>
       </c>
       <c r="C89" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D89" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="E89" t="s">
-        <v>94</v>
+        <v>105</v>
       </c>
     </row>
     <row r="90" spans="1:5">
@@ -2210,13 +2234,13 @@
         <v>7</v>
       </c>
       <c r="C90" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D90" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="E90" t="s">
-        <v>95</v>
+        <v>106</v>
       </c>
     </row>
     <row r="91" spans="1:5">
@@ -2227,13 +2251,13 @@
         <v>7</v>
       </c>
       <c r="C91" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D91" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="E91" t="s">
-        <v>96</v>
+        <v>107</v>
       </c>
     </row>
     <row r="92" spans="1:5">
@@ -2244,13 +2268,13 @@
         <v>7</v>
       </c>
       <c r="C92" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="D92" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="E92" t="s">
-        <v>94</v>
+        <v>108</v>
       </c>
     </row>
     <row r="93" spans="1:5">
@@ -2261,13 +2285,13 @@
         <v>7</v>
       </c>
       <c r="C93" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="D93" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="E93" t="s">
-        <v>94</v>
+        <v>109</v>
       </c>
     </row>
     <row r="94" spans="1:5">
@@ -2278,13 +2302,13 @@
         <v>7</v>
       </c>
       <c r="C94" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D94" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="E94" t="s">
-        <v>95</v>
+        <v>102</v>
       </c>
     </row>
     <row r="95" spans="1:5">
@@ -2295,13 +2319,13 @@
         <v>7</v>
       </c>
       <c r="C95" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D95" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="E95" t="s">
-        <v>96</v>
+        <v>103</v>
       </c>
     </row>
     <row r="96" spans="1:5">
@@ -2312,13 +2336,13 @@
         <v>7</v>
       </c>
       <c r="C96" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D96" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="E96" t="s">
-        <v>97</v>
+        <v>104</v>
       </c>
     </row>
     <row r="97" spans="1:5">
@@ -2329,13 +2353,13 @@
         <v>7</v>
       </c>
       <c r="C97" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D97" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="E97" t="s">
-        <v>98</v>
+        <v>105</v>
       </c>
     </row>
     <row r="98" spans="1:5">
@@ -2346,13 +2370,13 @@
         <v>7</v>
       </c>
       <c r="C98" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D98" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="E98" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
     </row>
     <row r="99" spans="1:5">
@@ -2363,13 +2387,13 @@
         <v>7</v>
       </c>
       <c r="C99" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D99" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="E99" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
     </row>
     <row r="100" spans="1:5">
@@ -2380,13 +2404,13 @@
         <v>7</v>
       </c>
       <c r="C100" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D100" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="E100" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
     </row>
     <row r="101" spans="1:5">
@@ -2397,13 +2421,13 @@
         <v>7</v>
       </c>
       <c r="C101" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D101" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="E101" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
     </row>
     <row r="102" spans="1:5">
@@ -2414,13 +2438,13 @@
         <v>7</v>
       </c>
       <c r="C102" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="D102" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="E102" t="s">
-        <v>94</v>
+        <v>106</v>
       </c>
     </row>
     <row r="103" spans="1:5">
@@ -2431,13 +2455,13 @@
         <v>7</v>
       </c>
       <c r="C103" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="D103" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="E103" t="s">
-        <v>95</v>
+        <v>107</v>
       </c>
     </row>
     <row r="104" spans="1:5">
@@ -2448,13 +2472,13 @@
         <v>7</v>
       </c>
       <c r="C104" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="D104" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="E104" t="s">
-        <v>96</v>
+        <v>108</v>
       </c>
     </row>
     <row r="105" spans="1:5">
@@ -2465,13 +2489,13 @@
         <v>7</v>
       </c>
       <c r="C105" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D105" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="E105" t="s">
-        <v>97</v>
+        <v>102</v>
       </c>
     </row>
     <row r="106" spans="1:5">
@@ -2482,13 +2506,13 @@
         <v>7</v>
       </c>
       <c r="C106" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D106" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="E106" t="s">
-        <v>98</v>
+        <v>103</v>
       </c>
     </row>
     <row r="107" spans="1:5">
@@ -2499,13 +2523,13 @@
         <v>7</v>
       </c>
       <c r="C107" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="D107" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="E107" t="s">
-        <v>94</v>
+        <v>104</v>
       </c>
     </row>
     <row r="108" spans="1:5">
@@ -2516,13 +2540,13 @@
         <v>7</v>
       </c>
       <c r="C108" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="D108" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="E108" t="s">
-        <v>95</v>
+        <v>105</v>
       </c>
     </row>
     <row r="109" spans="1:5">
@@ -2533,13 +2557,13 @@
         <v>7</v>
       </c>
       <c r="C109" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="D109" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="E109" t="s">
-        <v>96</v>
+        <v>106</v>
       </c>
     </row>
     <row r="110" spans="1:5">
@@ -2550,13 +2574,13 @@
         <v>7</v>
       </c>
       <c r="C110" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D110" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="E110" t="s">
-        <v>97</v>
+        <v>102</v>
       </c>
     </row>
     <row r="111" spans="1:5">
@@ -2567,13 +2591,13 @@
         <v>7</v>
       </c>
       <c r="C111" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D111" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="E111" t="s">
-        <v>98</v>
+        <v>103</v>
       </c>
     </row>
     <row r="112" spans="1:5">
@@ -2584,13 +2608,13 @@
         <v>7</v>
       </c>
       <c r="C112" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D112" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="E112" t="s">
-        <v>99</v>
+        <v>104</v>
       </c>
     </row>
     <row r="113" spans="1:5">
@@ -2604,10 +2628,10 @@
         <v>28</v>
       </c>
       <c r="D113" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="E113" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
     </row>
     <row r="114" spans="1:5">
@@ -2618,13 +2642,13 @@
         <v>7</v>
       </c>
       <c r="C114" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D114" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="E114" t="s">
-        <v>94</v>
+        <v>103</v>
       </c>
     </row>
     <row r="115" spans="1:5">
@@ -2635,13 +2659,13 @@
         <v>7</v>
       </c>
       <c r="C115" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D115" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="E115" t="s">
-        <v>95</v>
+        <v>104</v>
       </c>
     </row>
     <row r="116" spans="1:5">
@@ -2655,10 +2679,10 @@
         <v>29</v>
       </c>
       <c r="D116" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="E116" t="s">
-        <v>96</v>
+        <v>102</v>
       </c>
     </row>
     <row r="117" spans="1:5">
@@ -2669,13 +2693,13 @@
         <v>7</v>
       </c>
       <c r="C117" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D117" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="E117" t="s">
-        <v>94</v>
+        <v>103</v>
       </c>
     </row>
     <row r="118" spans="1:5">
@@ -2686,13 +2710,13 @@
         <v>7</v>
       </c>
       <c r="C118" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D118" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="E118" t="s">
-        <v>95</v>
+        <v>104</v>
       </c>
     </row>
     <row r="119" spans="1:5">
@@ -2703,13 +2727,13 @@
         <v>7</v>
       </c>
       <c r="C119" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D119" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="E119" t="s">
-        <v>96</v>
+        <v>105</v>
       </c>
     </row>
     <row r="120" spans="1:5">
@@ -2720,13 +2744,13 @@
         <v>7</v>
       </c>
       <c r="C120" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D120" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="E120" t="s">
-        <v>97</v>
+        <v>106</v>
       </c>
     </row>
     <row r="121" spans="1:5">
@@ -2737,13 +2761,13 @@
         <v>7</v>
       </c>
       <c r="C121" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D121" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="E121" t="s">
-        <v>98</v>
+        <v>107</v>
       </c>
     </row>
     <row r="122" spans="1:5">
@@ -2757,10 +2781,10 @@
         <v>30</v>
       </c>
       <c r="D122" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="E122" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
     </row>
     <row r="123" spans="1:5">
@@ -2774,10 +2798,10 @@
         <v>30</v>
       </c>
       <c r="D123" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="E123" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
     </row>
     <row r="124" spans="1:5">
@@ -2788,13 +2812,13 @@
         <v>7</v>
       </c>
       <c r="C124" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D124" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="E124" t="s">
-        <v>94</v>
+        <v>104</v>
       </c>
     </row>
     <row r="125" spans="1:5">
@@ -2805,13 +2829,13 @@
         <v>7</v>
       </c>
       <c r="C125" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D125" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="E125" t="s">
-        <v>95</v>
+        <v>105</v>
       </c>
     </row>
     <row r="126" spans="1:5">
@@ -2822,13 +2846,13 @@
         <v>7</v>
       </c>
       <c r="C126" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D126" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="E126" t="s">
-        <v>96</v>
+        <v>106</v>
       </c>
     </row>
     <row r="127" spans="1:5">
@@ -2839,13 +2863,13 @@
         <v>7</v>
       </c>
       <c r="C127" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D127" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="E127" t="s">
-        <v>94</v>
+        <v>102</v>
       </c>
     </row>
     <row r="128" spans="1:5">
@@ -2859,10 +2883,10 @@
         <v>32</v>
       </c>
       <c r="D128" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="E128" t="s">
-        <v>95</v>
+        <v>102</v>
       </c>
     </row>
     <row r="129" spans="1:5">
@@ -2876,10 +2900,10 @@
         <v>32</v>
       </c>
       <c r="D129" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="E129" t="s">
-        <v>96</v>
+        <v>103</v>
       </c>
     </row>
     <row r="130" spans="1:5">
@@ -2890,13 +2914,13 @@
         <v>7</v>
       </c>
       <c r="C130" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D130" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="E130" t="s">
-        <v>97</v>
+        <v>102</v>
       </c>
     </row>
     <row r="131" spans="1:5">
@@ -2907,13 +2931,13 @@
         <v>7</v>
       </c>
       <c r="C131" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="D131" t="s">
-        <v>75</v>
+        <v>81</v>
       </c>
       <c r="E131" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
     </row>
     <row r="132" spans="1:5">
@@ -2924,13 +2948,13 @@
         <v>7</v>
       </c>
       <c r="C132" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="D132" t="s">
-        <v>75</v>
+        <v>81</v>
       </c>
       <c r="E132" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
     </row>
     <row r="133" spans="1:5">
@@ -2941,13 +2965,13 @@
         <v>7</v>
       </c>
       <c r="C133" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D133" t="s">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="E133" t="s">
-        <v>94</v>
+        <v>104</v>
       </c>
     </row>
     <row r="134" spans="1:5">
@@ -2958,13 +2982,13 @@
         <v>7</v>
       </c>
       <c r="C134" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D134" t="s">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="E134" t="s">
-        <v>95</v>
+        <v>105</v>
       </c>
     </row>
     <row r="135" spans="1:5">
@@ -2978,10 +3002,10 @@
         <v>34</v>
       </c>
       <c r="D135" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="E135" t="s">
-        <v>94</v>
+        <v>106</v>
       </c>
     </row>
     <row r="136" spans="1:5">
@@ -2995,10 +3019,10 @@
         <v>34</v>
       </c>
       <c r="D136" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="E136" t="s">
-        <v>95</v>
+        <v>107</v>
       </c>
     </row>
     <row r="137" spans="1:5">
@@ -3009,13 +3033,13 @@
         <v>7</v>
       </c>
       <c r="C137" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D137" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="E137" t="s">
-        <v>94</v>
+        <v>108</v>
       </c>
     </row>
     <row r="138" spans="1:5">
@@ -3026,13 +3050,13 @@
         <v>7</v>
       </c>
       <c r="C138" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D138" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="E138" t="s">
-        <v>95</v>
+        <v>109</v>
       </c>
     </row>
     <row r="139" spans="1:5">
@@ -3043,13 +3067,13 @@
         <v>7</v>
       </c>
       <c r="C139" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D139" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="E139" t="s">
-        <v>96</v>
+        <v>110</v>
       </c>
     </row>
     <row r="140" spans="1:5">
@@ -3063,10 +3087,10 @@
         <v>35</v>
       </c>
       <c r="D140" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="E140" t="s">
-        <v>97</v>
+        <v>102</v>
       </c>
     </row>
     <row r="141" spans="1:5">
@@ -3080,10 +3104,10 @@
         <v>35</v>
       </c>
       <c r="D141" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="E141" t="s">
-        <v>98</v>
+        <v>103</v>
       </c>
     </row>
     <row r="142" spans="1:5">
@@ -3097,10 +3121,10 @@
         <v>35</v>
       </c>
       <c r="D142" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="E142" t="s">
-        <v>99</v>
+        <v>104</v>
       </c>
     </row>
     <row r="143" spans="1:5">
@@ -3114,10 +3138,10 @@
         <v>35</v>
       </c>
       <c r="D143" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="E143" t="s">
-        <v>100</v>
+        <v>105</v>
       </c>
     </row>
     <row r="144" spans="1:5">
@@ -3131,10 +3155,10 @@
         <v>36</v>
       </c>
       <c r="D144" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="E144" t="s">
-        <v>94</v>
+        <v>102</v>
       </c>
     </row>
     <row r="145" spans="1:5">
@@ -3148,10 +3172,10 @@
         <v>36</v>
       </c>
       <c r="D145" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="E145" t="s">
-        <v>95</v>
+        <v>103</v>
       </c>
     </row>
     <row r="146" spans="1:5">
@@ -3165,10 +3189,10 @@
         <v>36</v>
       </c>
       <c r="D146" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="E146" t="s">
-        <v>96</v>
+        <v>104</v>
       </c>
     </row>
     <row r="147" spans="1:5">
@@ -3182,10 +3206,10 @@
         <v>36</v>
       </c>
       <c r="D147" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="E147" t="s">
-        <v>97</v>
+        <v>105</v>
       </c>
     </row>
     <row r="148" spans="1:5">
@@ -3199,10 +3223,10 @@
         <v>36</v>
       </c>
       <c r="D148" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="E148" t="s">
-        <v>98</v>
+        <v>106</v>
       </c>
     </row>
     <row r="149" spans="1:5">
@@ -3216,10 +3240,10 @@
         <v>36</v>
       </c>
       <c r="D149" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="E149" t="s">
-        <v>99</v>
+        <v>107</v>
       </c>
     </row>
     <row r="150" spans="1:5">
@@ -3233,10 +3257,10 @@
         <v>36</v>
       </c>
       <c r="D150" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="E150" t="s">
-        <v>100</v>
+        <v>108</v>
       </c>
     </row>
     <row r="151" spans="1:5">
@@ -3250,10 +3274,10 @@
         <v>36</v>
       </c>
       <c r="D151" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="E151" t="s">
-        <v>101</v>
+        <v>109</v>
       </c>
     </row>
     <row r="152" spans="1:5">
@@ -3267,10 +3291,10 @@
         <v>37</v>
       </c>
       <c r="D152" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="E152" t="s">
-        <v>94</v>
+        <v>102</v>
       </c>
     </row>
     <row r="153" spans="1:5">
@@ -3284,10 +3308,10 @@
         <v>37</v>
       </c>
       <c r="D153" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="E153" t="s">
-        <v>95</v>
+        <v>103</v>
       </c>
     </row>
     <row r="154" spans="1:5">
@@ -3301,10 +3325,10 @@
         <v>37</v>
       </c>
       <c r="D154" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="E154" t="s">
-        <v>96</v>
+        <v>104</v>
       </c>
     </row>
     <row r="155" spans="1:5">
@@ -3318,10 +3342,10 @@
         <v>37</v>
       </c>
       <c r="D155" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="E155" t="s">
-        <v>97</v>
+        <v>105</v>
       </c>
     </row>
     <row r="156" spans="1:5">
@@ -3332,13 +3356,13 @@
         <v>7</v>
       </c>
       <c r="C156" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D156" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="E156" t="s">
-        <v>94</v>
+        <v>106</v>
       </c>
     </row>
     <row r="157" spans="1:5">
@@ -3349,13 +3373,13 @@
         <v>7</v>
       </c>
       <c r="C157" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D157" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="E157" t="s">
-        <v>94</v>
+        <v>102</v>
       </c>
     </row>
     <row r="158" spans="1:5">
@@ -3369,10 +3393,10 @@
         <v>39</v>
       </c>
       <c r="D158" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="E158" t="s">
-        <v>95</v>
+        <v>102</v>
       </c>
     </row>
     <row r="159" spans="1:5">
@@ -3386,10 +3410,10 @@
         <v>39</v>
       </c>
       <c r="D159" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="E159" t="s">
-        <v>96</v>
+        <v>103</v>
       </c>
     </row>
     <row r="160" spans="1:5">
@@ -3400,13 +3424,13 @@
         <v>7</v>
       </c>
       <c r="C160" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D160" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
       <c r="E160" t="s">
-        <v>97</v>
+        <v>102</v>
       </c>
     </row>
     <row r="161" spans="1:5">
@@ -3417,13 +3441,13 @@
         <v>7</v>
       </c>
       <c r="C161" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D161" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
       <c r="E161" t="s">
-        <v>98</v>
+        <v>103</v>
       </c>
     </row>
     <row r="162" spans="1:5">
@@ -3434,13 +3458,13 @@
         <v>7</v>
       </c>
       <c r="C162" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D162" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
       <c r="E162" t="s">
-        <v>99</v>
+        <v>104</v>
       </c>
     </row>
     <row r="163" spans="1:5">
@@ -3454,10 +3478,10 @@
         <v>40</v>
       </c>
       <c r="D163" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="E163" t="s">
-        <v>94</v>
+        <v>105</v>
       </c>
     </row>
     <row r="164" spans="1:5">
@@ -3471,10 +3495,10 @@
         <v>40</v>
       </c>
       <c r="D164" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="E164" t="s">
-        <v>95</v>
+        <v>106</v>
       </c>
     </row>
     <row r="165" spans="1:5">
@@ -3488,10 +3512,10 @@
         <v>40</v>
       </c>
       <c r="D165" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="E165" t="s">
-        <v>96</v>
+        <v>107</v>
       </c>
     </row>
     <row r="166" spans="1:5">
@@ -3505,10 +3529,10 @@
         <v>40</v>
       </c>
       <c r="D166" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="E166" t="s">
-        <v>97</v>
+        <v>108</v>
       </c>
     </row>
     <row r="167" spans="1:5">
@@ -3519,13 +3543,13 @@
         <v>7</v>
       </c>
       <c r="C167" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D167" t="s">
-        <v>83</v>
+        <v>88</v>
       </c>
       <c r="E167" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
     </row>
     <row r="168" spans="1:5">
@@ -3539,10 +3563,10 @@
         <v>41</v>
       </c>
       <c r="D168" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="E168" t="s">
-        <v>94</v>
+        <v>103</v>
       </c>
     </row>
     <row r="169" spans="1:5">
@@ -3556,10 +3580,10 @@
         <v>41</v>
       </c>
       <c r="D169" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="E169" t="s">
-        <v>95</v>
+        <v>104</v>
       </c>
     </row>
     <row r="170" spans="1:5">
@@ -3573,10 +3597,10 @@
         <v>41</v>
       </c>
       <c r="D170" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="E170" t="s">
-        <v>96</v>
+        <v>105</v>
       </c>
     </row>
     <row r="171" spans="1:5">
@@ -3590,10 +3614,10 @@
         <v>41</v>
       </c>
       <c r="D171" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="E171" t="s">
-        <v>97</v>
+        <v>106</v>
       </c>
     </row>
     <row r="172" spans="1:5">
@@ -3604,13 +3628,13 @@
         <v>7</v>
       </c>
       <c r="C172" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="D172" t="s">
-        <v>84</v>
+        <v>89</v>
       </c>
       <c r="E172" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
     </row>
     <row r="173" spans="1:5">
@@ -3624,10 +3648,10 @@
         <v>42</v>
       </c>
       <c r="D173" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="E173" t="s">
-        <v>94</v>
+        <v>103</v>
       </c>
     </row>
     <row r="174" spans="1:5">
@@ -3641,10 +3665,10 @@
         <v>42</v>
       </c>
       <c r="D174" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="E174" t="s">
-        <v>95</v>
+        <v>104</v>
       </c>
     </row>
     <row r="175" spans="1:5">
@@ -3658,10 +3682,10 @@
         <v>42</v>
       </c>
       <c r="D175" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="E175" t="s">
-        <v>96</v>
+        <v>105</v>
       </c>
     </row>
     <row r="176" spans="1:5">
@@ -3675,10 +3699,10 @@
         <v>42</v>
       </c>
       <c r="D176" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="E176" t="s">
-        <v>97</v>
+        <v>106</v>
       </c>
     </row>
     <row r="177" spans="1:5">
@@ -3692,10 +3716,10 @@
         <v>42</v>
       </c>
       <c r="D177" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="E177" t="s">
-        <v>98</v>
+        <v>107</v>
       </c>
     </row>
     <row r="178" spans="1:5">
@@ -3709,10 +3733,10 @@
         <v>42</v>
       </c>
       <c r="D178" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="E178" t="s">
-        <v>99</v>
+        <v>108</v>
       </c>
     </row>
     <row r="179" spans="1:5">
@@ -3723,13 +3747,13 @@
         <v>7</v>
       </c>
       <c r="C179" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="D179" t="s">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="E179" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
     </row>
     <row r="180" spans="1:5">
@@ -3740,13 +3764,13 @@
         <v>7</v>
       </c>
       <c r="C180" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="D180" t="s">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="E180" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
     </row>
     <row r="181" spans="1:5">
@@ -3757,13 +3781,13 @@
         <v>7</v>
       </c>
       <c r="C181" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="D181" t="s">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="E181" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
     </row>
     <row r="182" spans="1:5">
@@ -3777,10 +3801,10 @@
         <v>43</v>
       </c>
       <c r="D182" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="E182" t="s">
-        <v>94</v>
+        <v>105</v>
       </c>
     </row>
     <row r="183" spans="1:5">
@@ -3794,10 +3818,10 @@
         <v>43</v>
       </c>
       <c r="D183" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="E183" t="s">
-        <v>95</v>
+        <v>106</v>
       </c>
     </row>
     <row r="184" spans="1:5">
@@ -3811,10 +3835,10 @@
         <v>43</v>
       </c>
       <c r="D184" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="E184" t="s">
-        <v>96</v>
+        <v>107</v>
       </c>
     </row>
     <row r="185" spans="1:5">
@@ -3828,10 +3852,10 @@
         <v>43</v>
       </c>
       <c r="D185" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="E185" t="s">
-        <v>97</v>
+        <v>108</v>
       </c>
     </row>
     <row r="186" spans="1:5">
@@ -3845,10 +3869,10 @@
         <v>43</v>
       </c>
       <c r="D186" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="E186" t="s">
-        <v>98</v>
+        <v>109</v>
       </c>
     </row>
     <row r="187" spans="1:5">
@@ -3859,13 +3883,13 @@
         <v>7</v>
       </c>
       <c r="C187" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D187" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="E187" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
     </row>
     <row r="188" spans="1:5">
@@ -3876,13 +3900,13 @@
         <v>7</v>
       </c>
       <c r="C188" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D188" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="E188" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
     </row>
     <row r="189" spans="1:5">
@@ -3896,10 +3920,10 @@
         <v>44</v>
       </c>
       <c r="D189" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="E189" t="s">
-        <v>94</v>
+        <v>104</v>
       </c>
     </row>
     <row r="190" spans="1:5">
@@ -3913,10 +3937,10 @@
         <v>44</v>
       </c>
       <c r="D190" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="E190" t="s">
-        <v>95</v>
+        <v>105</v>
       </c>
     </row>
     <row r="191" spans="1:5">
@@ -3930,10 +3954,10 @@
         <v>44</v>
       </c>
       <c r="D191" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="E191" t="s">
-        <v>96</v>
+        <v>106</v>
       </c>
     </row>
     <row r="192" spans="1:5">
@@ -3947,10 +3971,10 @@
         <v>44</v>
       </c>
       <c r="D192" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="E192" t="s">
-        <v>97</v>
+        <v>107</v>
       </c>
     </row>
     <row r="193" spans="1:5">
@@ -3964,10 +3988,10 @@
         <v>44</v>
       </c>
       <c r="D193" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="E193" t="s">
-        <v>98</v>
+        <v>108</v>
       </c>
     </row>
     <row r="194" spans="1:5">
@@ -3981,10 +4005,10 @@
         <v>44</v>
       </c>
       <c r="D194" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="E194" t="s">
-        <v>99</v>
+        <v>109</v>
       </c>
     </row>
     <row r="195" spans="1:5">
@@ -3995,13 +4019,13 @@
         <v>7</v>
       </c>
       <c r="C195" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D195" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="E195" t="s">
-        <v>94</v>
+        <v>110</v>
       </c>
     </row>
     <row r="196" spans="1:5">
@@ -4015,10 +4039,10 @@
         <v>45</v>
       </c>
       <c r="D196" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="E196" t="s">
-        <v>95</v>
+        <v>102</v>
       </c>
     </row>
     <row r="197" spans="1:5">
@@ -4032,10 +4056,10 @@
         <v>45</v>
       </c>
       <c r="D197" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="E197" t="s">
-        <v>96</v>
+        <v>103</v>
       </c>
     </row>
     <row r="198" spans="1:5">
@@ -4049,10 +4073,10 @@
         <v>45</v>
       </c>
       <c r="D198" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="E198" t="s">
-        <v>97</v>
+        <v>104</v>
       </c>
     </row>
     <row r="199" spans="1:5">
@@ -4066,10 +4090,10 @@
         <v>45</v>
       </c>
       <c r="D199" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="E199" t="s">
-        <v>98</v>
+        <v>105</v>
       </c>
     </row>
     <row r="200" spans="1:5">
@@ -4083,10 +4107,10 @@
         <v>45</v>
       </c>
       <c r="D200" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="E200" t="s">
-        <v>99</v>
+        <v>106</v>
       </c>
     </row>
     <row r="201" spans="1:5">
@@ -4100,10 +4124,10 @@
         <v>45</v>
       </c>
       <c r="D201" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="E201" t="s">
-        <v>100</v>
+        <v>107</v>
       </c>
     </row>
     <row r="202" spans="1:5">
@@ -4114,13 +4138,13 @@
         <v>7</v>
       </c>
       <c r="C202" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D202" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="E202" t="s">
-        <v>94</v>
+        <v>108</v>
       </c>
     </row>
     <row r="203" spans="1:5">
@@ -4134,10 +4158,10 @@
         <v>46</v>
       </c>
       <c r="D203" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="E203" t="s">
-        <v>95</v>
+        <v>102</v>
       </c>
     </row>
     <row r="204" spans="1:5">
@@ -4151,10 +4175,10 @@
         <v>46</v>
       </c>
       <c r="D204" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="E204" t="s">
-        <v>96</v>
+        <v>103</v>
       </c>
     </row>
     <row r="205" spans="1:5">
@@ -4168,10 +4192,10 @@
         <v>46</v>
       </c>
       <c r="D205" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="E205" t="s">
-        <v>97</v>
+        <v>104</v>
       </c>
     </row>
     <row r="206" spans="1:5">
@@ -4185,10 +4209,10 @@
         <v>46</v>
       </c>
       <c r="D206" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="E206" t="s">
-        <v>98</v>
+        <v>105</v>
       </c>
     </row>
     <row r="207" spans="1:5">
@@ -4202,10 +4226,10 @@
         <v>46</v>
       </c>
       <c r="D207" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="E207" t="s">
-        <v>99</v>
+        <v>106</v>
       </c>
     </row>
     <row r="208" spans="1:5">
@@ -4219,10 +4243,10 @@
         <v>46</v>
       </c>
       <c r="D208" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="E208" t="s">
-        <v>100</v>
+        <v>107</v>
       </c>
     </row>
     <row r="209" spans="1:5">
@@ -4233,13 +4257,13 @@
         <v>7</v>
       </c>
       <c r="C209" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D209" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="E209" t="s">
-        <v>94</v>
+        <v>108</v>
       </c>
     </row>
     <row r="210" spans="1:5">
@@ -4253,10 +4277,10 @@
         <v>47</v>
       </c>
       <c r="D210" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="E210" t="s">
-        <v>95</v>
+        <v>102</v>
       </c>
     </row>
     <row r="211" spans="1:5">
@@ -4270,10 +4294,10 @@
         <v>47</v>
       </c>
       <c r="D211" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="E211" t="s">
-        <v>96</v>
+        <v>103</v>
       </c>
     </row>
     <row r="212" spans="1:5">
@@ -4284,13 +4308,13 @@
         <v>7</v>
       </c>
       <c r="C212" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D212" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="E212" t="s">
-        <v>94</v>
+        <v>104</v>
       </c>
     </row>
     <row r="213" spans="1:5">
@@ -4301,13 +4325,13 @@
         <v>7</v>
       </c>
       <c r="C213" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="D213" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="E213" t="s">
-        <v>94</v>
+        <v>105</v>
       </c>
     </row>
     <row r="214" spans="1:5">
@@ -4318,13 +4342,574 @@
         <v>7</v>
       </c>
       <c r="C214" t="s">
+        <v>48</v>
+      </c>
+      <c r="D214" t="s">
+        <v>95</v>
+      </c>
+      <c r="E214" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="215" spans="1:5">
+      <c r="A215" t="s">
+        <v>6</v>
+      </c>
+      <c r="B215" t="s">
+        <v>7</v>
+      </c>
+      <c r="C215" t="s">
+        <v>48</v>
+      </c>
+      <c r="D215" t="s">
+        <v>95</v>
+      </c>
+      <c r="E215" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="216" spans="1:5">
+      <c r="A216" t="s">
+        <v>6</v>
+      </c>
+      <c r="B216" t="s">
+        <v>7</v>
+      </c>
+      <c r="C216" t="s">
+        <v>48</v>
+      </c>
+      <c r="D216" t="s">
+        <v>95</v>
+      </c>
+      <c r="E216" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="217" spans="1:5">
+      <c r="A217" t="s">
+        <v>6</v>
+      </c>
+      <c r="B217" t="s">
+        <v>7</v>
+      </c>
+      <c r="C217" t="s">
+        <v>48</v>
+      </c>
+      <c r="D217" t="s">
+        <v>95</v>
+      </c>
+      <c r="E217" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="218" spans="1:5">
+      <c r="A218" t="s">
+        <v>6</v>
+      </c>
+      <c r="B218" t="s">
+        <v>7</v>
+      </c>
+      <c r="C218" t="s">
+        <v>48</v>
+      </c>
+      <c r="D218" t="s">
+        <v>95</v>
+      </c>
+      <c r="E218" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="219" spans="1:5">
+      <c r="A219" t="s">
+        <v>6</v>
+      </c>
+      <c r="B219" t="s">
+        <v>7</v>
+      </c>
+      <c r="C219" t="s">
+        <v>49</v>
+      </c>
+      <c r="D219" t="s">
+        <v>96</v>
+      </c>
+      <c r="E219" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="220" spans="1:5">
+      <c r="A220" t="s">
+        <v>6</v>
+      </c>
+      <c r="B220" t="s">
+        <v>7</v>
+      </c>
+      <c r="C220" t="s">
+        <v>49</v>
+      </c>
+      <c r="D220" t="s">
+        <v>96</v>
+      </c>
+      <c r="E220" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="221" spans="1:5">
+      <c r="A221" t="s">
+        <v>6</v>
+      </c>
+      <c r="B221" t="s">
+        <v>7</v>
+      </c>
+      <c r="C221" t="s">
+        <v>49</v>
+      </c>
+      <c r="D221" t="s">
+        <v>96</v>
+      </c>
+      <c r="E221" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="222" spans="1:5">
+      <c r="A222" t="s">
+        <v>6</v>
+      </c>
+      <c r="B222" t="s">
+        <v>7</v>
+      </c>
+      <c r="C222" t="s">
+        <v>49</v>
+      </c>
+      <c r="D222" t="s">
+        <v>96</v>
+      </c>
+      <c r="E222" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="223" spans="1:5">
+      <c r="A223" t="s">
+        <v>6</v>
+      </c>
+      <c r="B223" t="s">
+        <v>7</v>
+      </c>
+      <c r="C223" t="s">
+        <v>49</v>
+      </c>
+      <c r="D223" t="s">
+        <v>96</v>
+      </c>
+      <c r="E223" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="224" spans="1:5">
+      <c r="A224" t="s">
+        <v>6</v>
+      </c>
+      <c r="B224" t="s">
+        <v>7</v>
+      </c>
+      <c r="C224" t="s">
+        <v>49</v>
+      </c>
+      <c r="D224" t="s">
+        <v>96</v>
+      </c>
+      <c r="E224" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="225" spans="1:5">
+      <c r="A225" t="s">
+        <v>6</v>
+      </c>
+      <c r="B225" t="s">
+        <v>7</v>
+      </c>
+      <c r="C225" t="s">
+        <v>49</v>
+      </c>
+      <c r="D225" t="s">
+        <v>96</v>
+      </c>
+      <c r="E225" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="226" spans="1:5">
+      <c r="A226" t="s">
+        <v>6</v>
+      </c>
+      <c r="B226" t="s">
+        <v>7</v>
+      </c>
+      <c r="C226" t="s">
+        <v>49</v>
+      </c>
+      <c r="D226" t="s">
+        <v>96</v>
+      </c>
+      <c r="E226" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="227" spans="1:5">
+      <c r="A227" t="s">
+        <v>6</v>
+      </c>
+      <c r="B227" t="s">
+        <v>7</v>
+      </c>
+      <c r="C227" t="s">
+        <v>49</v>
+      </c>
+      <c r="D227" t="s">
+        <v>96</v>
+      </c>
+      <c r="E227" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="228" spans="1:5">
+      <c r="A228" t="s">
+        <v>6</v>
+      </c>
+      <c r="B228" t="s">
+        <v>7</v>
+      </c>
+      <c r="C228" t="s">
         <v>50</v>
       </c>
-      <c r="D214" t="s">
-        <v>93</v>
-      </c>
-      <c r="E214" t="s">
-        <v>94</v>
+      <c r="D228" t="s">
+        <v>97</v>
+      </c>
+      <c r="E228" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="229" spans="1:5">
+      <c r="A229" t="s">
+        <v>6</v>
+      </c>
+      <c r="B229" t="s">
+        <v>7</v>
+      </c>
+      <c r="C229" t="s">
+        <v>51</v>
+      </c>
+      <c r="D229" t="s">
+        <v>98</v>
+      </c>
+      <c r="E229" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="230" spans="1:5">
+      <c r="A230" t="s">
+        <v>6</v>
+      </c>
+      <c r="B230" t="s">
+        <v>7</v>
+      </c>
+      <c r="C230" t="s">
+        <v>51</v>
+      </c>
+      <c r="D230" t="s">
+        <v>98</v>
+      </c>
+      <c r="E230" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="231" spans="1:5">
+      <c r="A231" t="s">
+        <v>6</v>
+      </c>
+      <c r="B231" t="s">
+        <v>7</v>
+      </c>
+      <c r="C231" t="s">
+        <v>51</v>
+      </c>
+      <c r="D231" t="s">
+        <v>98</v>
+      </c>
+      <c r="E231" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="232" spans="1:5">
+      <c r="A232" t="s">
+        <v>6</v>
+      </c>
+      <c r="B232" t="s">
+        <v>7</v>
+      </c>
+      <c r="C232" t="s">
+        <v>51</v>
+      </c>
+      <c r="D232" t="s">
+        <v>98</v>
+      </c>
+      <c r="E232" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="233" spans="1:5">
+      <c r="A233" t="s">
+        <v>6</v>
+      </c>
+      <c r="B233" t="s">
+        <v>7</v>
+      </c>
+      <c r="C233" t="s">
+        <v>51</v>
+      </c>
+      <c r="D233" t="s">
+        <v>98</v>
+      </c>
+      <c r="E233" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="234" spans="1:5">
+      <c r="A234" t="s">
+        <v>6</v>
+      </c>
+      <c r="B234" t="s">
+        <v>7</v>
+      </c>
+      <c r="C234" t="s">
+        <v>51</v>
+      </c>
+      <c r="D234" t="s">
+        <v>98</v>
+      </c>
+      <c r="E234" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="235" spans="1:5">
+      <c r="A235" t="s">
+        <v>6</v>
+      </c>
+      <c r="B235" t="s">
+        <v>7</v>
+      </c>
+      <c r="C235" t="s">
+        <v>51</v>
+      </c>
+      <c r="D235" t="s">
+        <v>98</v>
+      </c>
+      <c r="E235" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="236" spans="1:5">
+      <c r="A236" t="s">
+        <v>6</v>
+      </c>
+      <c r="B236" t="s">
+        <v>7</v>
+      </c>
+      <c r="C236" t="s">
+        <v>51</v>
+      </c>
+      <c r="D236" t="s">
+        <v>98</v>
+      </c>
+      <c r="E236" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="237" spans="1:5">
+      <c r="A237" t="s">
+        <v>6</v>
+      </c>
+      <c r="B237" t="s">
+        <v>7</v>
+      </c>
+      <c r="C237" t="s">
+        <v>51</v>
+      </c>
+      <c r="D237" t="s">
+        <v>98</v>
+      </c>
+      <c r="E237" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="238" spans="1:5">
+      <c r="A238" t="s">
+        <v>6</v>
+      </c>
+      <c r="B238" t="s">
+        <v>7</v>
+      </c>
+      <c r="C238" t="s">
+        <v>52</v>
+      </c>
+      <c r="D238" t="s">
+        <v>99</v>
+      </c>
+      <c r="E238" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="239" spans="1:5">
+      <c r="A239" t="s">
+        <v>6</v>
+      </c>
+      <c r="B239" t="s">
+        <v>7</v>
+      </c>
+      <c r="C239" t="s">
+        <v>53</v>
+      </c>
+      <c r="D239" t="s">
+        <v>100</v>
+      </c>
+      <c r="E239" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="240" spans="1:5">
+      <c r="A240" t="s">
+        <v>6</v>
+      </c>
+      <c r="B240" t="s">
+        <v>7</v>
+      </c>
+      <c r="C240" t="s">
+        <v>53</v>
+      </c>
+      <c r="D240" t="s">
+        <v>100</v>
+      </c>
+      <c r="E240" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="241" spans="1:5">
+      <c r="A241" t="s">
+        <v>6</v>
+      </c>
+      <c r="B241" t="s">
+        <v>7</v>
+      </c>
+      <c r="C241" t="s">
+        <v>53</v>
+      </c>
+      <c r="D241" t="s">
+        <v>100</v>
+      </c>
+      <c r="E241" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="242" spans="1:5">
+      <c r="A242" t="s">
+        <v>6</v>
+      </c>
+      <c r="B242" t="s">
+        <v>7</v>
+      </c>
+      <c r="C242" t="s">
+        <v>54</v>
+      </c>
+      <c r="D242" t="s">
+        <v>101</v>
+      </c>
+      <c r="E242" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="243" spans="1:5">
+      <c r="A243" t="s">
+        <v>6</v>
+      </c>
+      <c r="B243" t="s">
+        <v>7</v>
+      </c>
+      <c r="C243" t="s">
+        <v>54</v>
+      </c>
+      <c r="D243" t="s">
+        <v>101</v>
+      </c>
+      <c r="E243" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="244" spans="1:5">
+      <c r="A244" t="s">
+        <v>6</v>
+      </c>
+      <c r="B244" t="s">
+        <v>7</v>
+      </c>
+      <c r="C244" t="s">
+        <v>54</v>
+      </c>
+      <c r="D244" t="s">
+        <v>101</v>
+      </c>
+      <c r="E244" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="245" spans="1:5">
+      <c r="A245" t="s">
+        <v>6</v>
+      </c>
+      <c r="B245" t="s">
+        <v>7</v>
+      </c>
+      <c r="C245" t="s">
+        <v>54</v>
+      </c>
+      <c r="D245" t="s">
+        <v>101</v>
+      </c>
+      <c r="E245" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="246" spans="1:5">
+      <c r="A246" t="s">
+        <v>6</v>
+      </c>
+      <c r="B246" t="s">
+        <v>7</v>
+      </c>
+      <c r="C246" t="s">
+        <v>54</v>
+      </c>
+      <c r="D246" t="s">
+        <v>101</v>
+      </c>
+      <c r="E246" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="247" spans="1:5">
+      <c r="A247" t="s">
+        <v>6</v>
+      </c>
+      <c r="B247" t="s">
+        <v>7</v>
+      </c>
+      <c r="C247" t="s">
+        <v>54</v>
+      </c>
+      <c r="D247" t="s">
+        <v>101</v>
+      </c>
+      <c r="E247" t="s">
+        <v>107</v>
       </c>
     </row>
   </sheetData>
